--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:CO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,93 +534,27 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" t="n">
+      <c r="AZ1" t="n">
         <v>9</v>
       </c>
-      <c r="F1" t="n">
+      <c r="BL1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX1" t="n">
         <v>9</v>
       </c>
-      <c r="G1" t="n">
-        <v>9</v>
-      </c>
-      <c r="H1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N1" t="n">
-        <v>6</v>
-      </c>
-      <c r="O1" t="n">
-        <v>8</v>
-      </c>
-      <c r="P1" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>9</v>
-      </c>
-      <c r="R1" t="n">
-        <v>9</v>
-      </c>
-      <c r="S1" t="n">
-        <v>9</v>
-      </c>
-      <c r="T1" t="n">
-        <v>9</v>
-      </c>
-      <c r="U1" t="n">
-        <v>7</v>
-      </c>
-      <c r="V1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W1" t="n">
-        <v>4</v>
-      </c>
-      <c r="X1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG1" t="n">
+      <c r="CJ1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -637,93 +571,27 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="n">
         <v>90</v>
       </c>
-      <c r="E2" t="n">
+      <c r="AZ2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" t="n">
+      <c r="BL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BX2" t="n">
         <v>90</v>
       </c>
-      <c r="G2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80</v>
-      </c>
-      <c r="J2" t="n">
-        <v>70</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50</v>
-      </c>
-      <c r="M2" t="n">
-        <v>60</v>
-      </c>
-      <c r="N2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>90</v>
-      </c>
-      <c r="R2" t="n">
-        <v>90</v>
-      </c>
-      <c r="S2" t="n">
-        <v>90</v>
-      </c>
-      <c r="T2" t="n">
-        <v>90</v>
-      </c>
-      <c r="U2" t="n">
-        <v>78</v>
-      </c>
-      <c r="V2" t="n">
-        <v>65</v>
-      </c>
-      <c r="W2" t="n">
-        <v>52</v>
-      </c>
-      <c r="X2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>78</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="CJ2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -734,10 +602,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>63.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,34 +622,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -814,14 +682,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -849,44 +717,344 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -897,10 +1065,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>41.11111111111111</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -937,9 +1105,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -977,39 +1145,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1037,19 +1205,319 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AE4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1060,44 +1528,44 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>41.11111111111111</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1115,44 +1583,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1200,17 +1668,317 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1223,29 +1991,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.75</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>41.11111111111111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1263,29 +2031,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1308,39 +2076,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1348,19 +2116,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr">
@@ -1376,6 +2144,306 @@
       <c r="AG6" s="1" t="inlineStr">
         <is>
           <t>T</t>
+        </is>
+      </c>
+      <c r="AH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1386,34 +2454,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.75</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>41.11111111111111</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1426,14 +2494,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
@@ -1451,9 +2519,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1476,19 +2544,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="U7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1506,39 +2574,339 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1549,10 +2917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1569,19 +2937,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1599,34 +2967,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1649,44 +3017,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="W8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1700,6 +3068,306 @@
         </is>
       </c>
       <c r="AG8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1712,44 +3380,44 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>40</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1772,34 +3440,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1822,9 +3490,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="Y9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1837,34 +3505,334 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1875,24 +3843,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>40</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1915,19 +3883,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1945,34 +3913,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1980,9 +3948,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="X10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1995,37 +3963,337 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG10" s="1" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO10" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -2038,39 +4306,39 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>40</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2093,29 +4361,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2123,24 +4391,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2153,44 +4421,344 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2201,24 +4769,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>40</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2236,19 +4804,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2266,39 +4834,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2326,9 +4894,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AC12" s="1" t="inlineStr">
@@ -2354,6 +4922,306 @@
       <c r="AG12" s="1" t="inlineStr">
         <is>
           <t>T</t>
+        </is>
+      </c>
+      <c r="AH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2364,39 +5232,39 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>41.11111111111111</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2414,44 +5282,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2474,19 +5342,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AB13" s="1" t="inlineStr">
@@ -2494,27 +5362,327 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -2527,10 +5695,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.75</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>63.33333333333333</v>
+        <v>41.11111111111111</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2552,19 +5720,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2587,44 +5755,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="O14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2652,101 +5820,355 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="I1"/>
-    <mergeCell ref="AH2"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="Q2"/>
-    <mergeCell ref="W2"/>
-    <mergeCell ref="X1"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="Z1"/>
-    <mergeCell ref="AA2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="AC2"/>
-    <mergeCell ref="S1"/>
-    <mergeCell ref="AF1"/>
-    <mergeCell ref="U1"/>
-    <mergeCell ref="AC1"/>
-    <mergeCell ref="AF2"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="AE2"/>
-    <mergeCell ref="R1"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="V2"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="P1"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="AA1"/>
-    <mergeCell ref="AG1"/>
-    <mergeCell ref="M1"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="S2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="V1"/>
-    <mergeCell ref="O1"/>
-    <mergeCell ref="Y2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="AB1"/>
-    <mergeCell ref="W1"/>
-    <mergeCell ref="AD1"/>
-    <mergeCell ref="AG2"/>
-    <mergeCell ref="Y1"/>
-    <mergeCell ref="AH1"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="N1"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="Q1"/>
-    <mergeCell ref="Z2"/>
-    <mergeCell ref="AB2"/>
-    <mergeCell ref="T2"/>
-    <mergeCell ref="AD2"/>
-    <mergeCell ref="L1"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="AE1"/>
-    <mergeCell ref="T1"/>
+  <mergeCells count="16">
+    <mergeCell ref="AB1:AM1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="AZ2:BK2"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AY2"/>
+    <mergeCell ref="AZ1:BK1"/>
+    <mergeCell ref="AN1:AY1"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="BL2:BW2"/>
+    <mergeCell ref="BX1:CI1"/>
+    <mergeCell ref="BX2:CI2"/>
+    <mergeCell ref="CJ1:CO1"/>
+    <mergeCell ref="CJ2:CO2"/>
+    <mergeCell ref="BL1:BW1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:CO2">
     <cfRule type="colorScale" priority="1">
@@ -3040,6 +6462,606 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="70"/>

--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:CR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,22 +536,91 @@
       <c r="D1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1" t="n">
-        <v>4</v>
-      </c>
       <c r="G1" t="n">
         <v>9</v>
       </c>
-      <c r="H1" t="n">
+      <c r="J1" t="n">
         <v>9</v>
       </c>
-      <c r="I1" t="n">
+      <c r="M1" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1" t="n">
+        <v>9</v>
+      </c>
+      <c r="S1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL1" t="n">
         <v>3</v>
       </c>
-      <c r="J1" t="n">
+      <c r="BO1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CM1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -570,22 +639,91 @@
       <c r="D2" t="n">
         <v>90</v>
       </c>
-      <c r="E2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
       <c r="G2" t="n">
         <v>90</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>90</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
+        <v>90</v>
+      </c>
+      <c r="S2" t="n">
+        <v>80</v>
+      </c>
+      <c r="V2" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>78</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL2" t="n">
         <v>40</v>
       </c>
-      <c r="J2" t="n">
+      <c r="BO2" t="n">
+        <v>52</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>78</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CM2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -596,10 +734,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>57.14285714285714</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
@@ -611,9 +749,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -626,14 +764,429 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -644,24 +1197,24 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>57.14285714285714</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -669,19 +1222,434 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>D</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -692,14 +1660,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -712,9 +1680,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -722,12 +1690,427 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO5" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -740,10 +2123,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>71.42857142857143</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -755,9 +2138,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -770,14 +2153,429 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>T</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -788,10 +2586,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>71.42857142857143</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -803,9 +2601,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -818,12 +2616,427 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO7" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -836,10 +3049,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>71.42857142857143</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
@@ -851,9 +3064,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -866,12 +3079,427 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO8" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -884,19 +3512,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -904,14 +3532,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -919,9 +3547,424 @@
           <t>D</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -932,19 +3975,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -952,14 +3995,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -967,7 +4010,422 @@
           <t>D</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO10" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -980,10 +4438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>71.42857142857143</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -995,9 +4453,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1010,12 +4468,427 @@
           <t>T</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO11" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -1028,19 +4901,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>71.42857142857143</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
@@ -1053,9 +4926,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
@@ -1066,6 +4939,421 @@
       <c r="J12" s="1" t="inlineStr">
         <is>
           <t>T</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1076,19 +5364,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>71.42857142857143</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
@@ -1101,9 +5389,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
@@ -1112,29 +5400,953 @@
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>worker11:</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C14" t="n">
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO14" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="I1"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="I2"/>
+  <mergeCells count="62">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ1:CL1"/>
+    <mergeCell ref="CP1:CR1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AB1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:CO2">
     <cfRule type="colorScale" priority="1">
@@ -1198,6 +6410,836 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="70"/>

--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR14"/>
+  <dimension ref="A1:CR20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,88 +534,88 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW1" t="n">
         <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW1" t="n">
-        <v>9</v>
       </c>
       <c r="AZ1" t="n">
         <v>9</v>
       </c>
       <c r="BC1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO1" t="n">
         <v>7</v>
-      </c>
-      <c r="BF1" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO1" t="n">
-        <v>4</v>
       </c>
       <c r="BR1" t="n">
         <v>6</v>
       </c>
       <c r="BU1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG1" t="n">
         <v>7</v>
-      </c>
-      <c r="BX1" t="n">
-        <v>9</v>
-      </c>
-      <c r="CA1" t="n">
-        <v>9</v>
-      </c>
-      <c r="CD1" t="n">
-        <v>9</v>
-      </c>
-      <c r="CG1" t="n">
-        <v>9</v>
       </c>
       <c r="CJ1" t="n">
         <v>9</v>
@@ -637,88 +637,88 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="n">
         <v>80</v>
-      </c>
-      <c r="V2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>90</v>
       </c>
       <c r="AZ2" t="n">
         <v>90</v>
       </c>
       <c r="BC2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BO2" t="n">
         <v>78</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>65</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>52</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>40</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>52</v>
       </c>
       <c r="BR2" t="n">
         <v>65</v>
       </c>
       <c r="BU2" t="n">
+        <v>52</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>40</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>52</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>65</v>
+      </c>
+      <c r="CG2" t="n">
         <v>78</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>90</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>90</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>90</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>90</v>
       </c>
       <c r="CJ2" t="n">
         <v>90</v>
@@ -734,39 +734,39 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -774,19 +774,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -834,44 +834,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -879,9 +879,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -919,14 +919,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AN3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
@@ -964,39 +964,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BD3" s="1" t="inlineStr">
@@ -1004,69 +1004,69 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
@@ -1094,99 +1094,99 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>62.22222222222222</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1247,24 +1247,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -1272,24 +1272,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="R4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1342,44 +1342,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AF4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AN4" s="1" t="inlineStr">
@@ -1392,69 +1392,69 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AP4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -1482,19 +1482,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BK4" s="1" t="inlineStr">
@@ -1517,19 +1517,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BO4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
@@ -1567,19 +1567,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BY4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB4" s="1" t="inlineStr">
@@ -1660,119 +1660,119 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.583333333333333</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>61.11111111111111</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>26.66666666666667</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1780,9 +1780,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1830,59 +1830,59 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AK5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AV5" s="1" t="inlineStr">
@@ -1915,9 +1915,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BB5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
@@ -1955,29 +1955,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BO5" s="1" t="inlineStr">
@@ -1990,39 +1990,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BQ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
@@ -2070,14 +2070,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI5" s="1" t="inlineStr">
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>61.11111111111111</v>
+        <v>25.55555555555555</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -2148,54 +2148,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2233,39 +2233,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AF6" s="1" t="inlineStr">
@@ -2283,14 +2283,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -2328,69 +2328,69 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AR6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BE6" s="1" t="inlineStr">
@@ -2398,34 +2398,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
@@ -2453,89 +2453,89 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BQ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
@@ -2543,39 +2543,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2586,44 +2586,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>26.66666666666667</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2661,29 +2661,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="R7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
@@ -2691,9 +2691,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="X7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2736,39 +2736,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AG7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2781,14 +2781,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AP7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2816,49 +2816,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AW7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BF7" s="1" t="inlineStr">
@@ -2901,14 +2901,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
@@ -2951,39 +2951,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BX7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CE7" s="1" t="inlineStr">
@@ -3049,84 +3049,84 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -3139,9 +3139,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -3189,104 +3189,104 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -3304,24 +3304,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BF8" s="1" t="inlineStr">
@@ -3339,24 +3339,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
@@ -3394,9 +3394,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BT8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BU8" s="1" t="inlineStr">
@@ -3434,74 +3434,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>62.22222222222222</v>
+        <v>25.55555555555555</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3552,79 +3552,79 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -3632,29 +3632,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -3682,19 +3682,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AK9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AN9" s="1" t="inlineStr">
@@ -3727,39 +3727,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AT9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BA9" s="1" t="inlineStr">
@@ -3787,19 +3787,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BF9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
@@ -3822,29 +3822,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BM9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BR9" s="1" t="inlineStr">
@@ -3862,59 +3862,59 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>61.11111111111111</v>
+        <v>25.55555555555555</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4030,54 +4030,54 @@
           <t>D</t>
         </is>
       </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
@@ -4085,19 +4085,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Y10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -4135,114 +4135,114 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
@@ -4260,44 +4260,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BH10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BP10" s="1" t="inlineStr">
@@ -4305,99 +4305,99 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BQ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CJ10" s="1" t="inlineStr">
@@ -4438,54 +4438,54 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
@@ -4493,44 +4493,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -4568,14 +4568,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -4593,69 +4593,69 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AH11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
@@ -4668,39 +4668,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -4708,34 +4708,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BK11" s="1" t="inlineStr">
@@ -4743,44 +4743,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4803,74 +4803,74 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BX11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CL11" s="1" t="inlineStr">
@@ -4901,54 +4901,54 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -5011,44 +5011,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -5086,49 +5086,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AN12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AW12" s="1" t="inlineStr">
@@ -5236,49 +5236,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BR12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CA12" s="1" t="inlineStr">
@@ -5364,104 +5364,104 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>24.44444444444444</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -5489,9 +5489,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -5514,39 +5514,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AG13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -5584,24 +5584,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AU13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AY13" s="1" t="inlineStr">
@@ -5699,39 +5699,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BR13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
@@ -5759,14 +5759,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CD13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CF13" s="1" t="inlineStr">
@@ -5827,44 +5827,44 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -5877,64 +5877,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -5972,14 +5972,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AF14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -5997,49 +5997,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AK14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AT14" s="1" t="inlineStr">
@@ -6082,9 +6082,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
@@ -6132,14 +6132,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BL14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BN14" s="1" t="inlineStr">
@@ -6177,14 +6177,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
@@ -6242,14 +6242,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CH14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CJ14" s="1" t="inlineStr">
@@ -6262,24 +6262,2802 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CL14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>worker12:</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD15" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>worker13:</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG16" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>worker14:</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW17" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>worker15:</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO18" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>worker16:</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO19" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>worker17:</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU20" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,127 +535,127 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z1" t="n">
         <v>7</v>
       </c>
       <c r="AA1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AN1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS1" t="n">
         <v>6</v>
@@ -663,49 +664,49 @@
         <v>6</v>
       </c>
       <c r="AU1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BE1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ1" t="n">
         <v>9</v>
@@ -753,55 +754,55 @@
         <v>9</v>
       </c>
       <c r="BY1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CA1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CB1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CC1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CD1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CE1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CF1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CG1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CH1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CI1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CJ1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CK1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CL1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CM1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CN1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CO1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -817,274 +818,274 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="U2" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="V2" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="W2" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="n">
         <v>77</v>
       </c>
       <c r="AA2" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AO2" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AP2" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AQ2" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AR2" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
         <v>69</v>
       </c>
       <c r="AT2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AU2" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AV2" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AW2" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AX2" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AY2" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AZ2" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="BA2" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="BB2" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="BC2" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="BE2" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="BF2" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="BG2" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="BH2" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BI2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="BJ2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BK2" t="n">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="n">
         <v>86</v>
       </c>
-      <c r="BL2" t="n">
-        <v>90</v>
-      </c>
       <c r="BM2" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BN2" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BO2" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BP2" t="n">
         <v>90</v>
       </c>
       <c r="BQ2" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BR2" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BS2" t="n">
         <v>90</v>
       </c>
       <c r="BT2" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BU2" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BV2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BW2" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="BX2" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BY2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BZ2" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="CA2" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="CB2" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="CC2" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="CD2" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="CE2" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="CF2" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="CG2" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="CH2" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="CI2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="CJ2" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="CK2" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="CL2" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="CM2" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="CN2" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="CO2" t="n">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1094,104 +1095,104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>54.44444444444444</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
@@ -1209,39 +1210,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
@@ -1269,14 +1270,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1309,44 +1310,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
@@ -1374,39 +1375,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
@@ -1449,104 +1450,104 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BV3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1557,94 +1558,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="U4" s="1" t="inlineStr">
@@ -1667,19 +1668,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Y4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1722,39 +1723,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ4" s="1" t="inlineStr">
@@ -1802,24 +1803,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AZ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -1852,9 +1853,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BK4" s="1" t="inlineStr">
@@ -1942,29 +1943,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
@@ -1977,39 +1978,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CI4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2020,119 +2021,119 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Z5" s="1" t="inlineStr">
@@ -2140,64 +2141,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AM5" s="1" t="inlineStr">
@@ -2365,44 +2366,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BT5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
@@ -2410,34 +2411,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CC5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI5" s="1" t="inlineStr">
@@ -2483,44 +2484,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>54.44444444444444</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2558,49 +2559,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2608,34 +2609,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AH6" s="1" t="inlineStr">
@@ -2758,9 +2759,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BG6" s="1" t="inlineStr">
@@ -2863,14 +2864,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2903,39 +2904,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CI6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2946,44 +2947,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -3131,29 +3132,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AN7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -3221,34 +3222,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BL7" s="1" t="inlineStr">
@@ -3316,39 +3317,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BY7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CF7" s="1" t="inlineStr">
@@ -3366,39 +3367,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3409,10 +3410,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>53.33333333333334</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3449,39 +3450,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3514,9 +3515,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="X8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -3559,39 +3560,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AG8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AN8" s="1" t="inlineStr">
@@ -3609,39 +3610,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AQ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AX8" s="1" t="inlineStr">
@@ -3679,9 +3680,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -3784,39 +3785,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BZ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CG8" s="1" t="inlineStr">
@@ -3829,39 +3830,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3872,69 +3873,69 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3947,39 +3948,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="R9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -3987,49 +3988,49 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AI9" s="1" t="inlineStr">
@@ -4067,9 +4068,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AP9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -4102,29 +4103,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BB9" s="1" t="inlineStr">
@@ -4187,9 +4188,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
@@ -4222,9 +4223,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BU9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BV9" s="1" t="inlineStr">
@@ -4277,54 +4278,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CF9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4335,10 +4336,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>53.33333333333334</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4380,84 +4381,84 @@
           <t>D</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AB10" s="1" t="inlineStr">
@@ -4490,44 +4491,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AH10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AP10" s="1" t="inlineStr">
@@ -4575,19 +4576,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4625,9 +4626,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BJ10" s="1" t="inlineStr">
@@ -4680,39 +4681,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CA10" s="1" t="inlineStr">
@@ -4730,64 +4731,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CD10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4798,89 +4799,89 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -4998,19 +4999,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AQ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -5033,44 +5034,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BF11" s="1" t="inlineStr">
@@ -5108,39 +5109,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BM11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BT11" s="1" t="inlineStr">
@@ -5148,109 +5149,109 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5261,49 +5262,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>54.44444444444444</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>62.22222222222222</v>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -5346,14 +5347,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -5426,19 +5427,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -5486,24 +5487,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AZ12" s="1" t="inlineStr">
@@ -5571,29 +5572,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BM12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
@@ -5606,44 +5607,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BT12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB12" s="1" t="inlineStr">
@@ -5681,39 +5682,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5724,10 +5725,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>53.33333333333334</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -5764,64 +5765,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -5834,54 +5835,54 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -5909,44 +5910,44 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AN13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
@@ -6024,9 +6025,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BK13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
@@ -6059,9 +6060,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BR13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BR13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BS13" s="1" t="inlineStr">
@@ -6164,19 +6165,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CM13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6187,10 +6188,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>54.44444444444444</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -6252,14 +6253,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -6312,54 +6313,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AB14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AL14" s="1" t="inlineStr">
@@ -6367,44 +6368,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AM14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AU14" s="1" t="inlineStr">
@@ -6417,44 +6418,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AW14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BE14" s="1" t="inlineStr">
@@ -6472,39 +6473,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BH14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BO14" s="1" t="inlineStr">
@@ -6527,49 +6528,49 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BS14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA14" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CB14" s="1" t="inlineStr">
@@ -6602,44 +6603,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CH14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7732,4 +7733,591 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>worker0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>('D:', 70)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>('T:', 100)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>('D:', 65)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>worker1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>('D:', 90)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('T:', 65)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>('D:', 45)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>worker2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('T:', 40)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>('D:', 65)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('T:', 60)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('D:', 45)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>('T:', 65)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>worker3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('T:', 45)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>('T:', 80)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>('D:', 65)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>worker4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>('D:', 45)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('T:', 65)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>('D:', 90)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('T:', 95)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('T:', 50)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>worker5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>('T:', 40)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>('T:', 65)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>('T:', 45)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>worker6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>('T:', 60)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>('D:', 50)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>('T:', 80)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>('T:', 50)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>('D:', 50)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>worker7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>('T:', 60)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>worker8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>('T:', 80)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('T:', 80)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>('T:', 75)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>('T:', 40)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>('D:', 70)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>worker9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>('T:', 40)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('T:', 95)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>('D:', 45)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>('D:', 50)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>worker10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>('T:', 95)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>('D:', 85)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>('T:', 40)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>('D:', 15)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>worker11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>('T:', 65)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>('T:', 95)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP14"/>
+  <dimension ref="A1:CP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,55 +577,55 @@
         <v>9</v>
       </c>
       <c r="R1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S1" t="n">
         <v>8</v>
       </c>
       <c r="T1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI1" t="n">
         <v>7</v>
@@ -634,58 +634,58 @@
         <v>7</v>
       </c>
       <c r="AK1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AN1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AT1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC1" t="n">
         <v>7</v>
@@ -694,55 +694,55 @@
         <v>7</v>
       </c>
       <c r="BE1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT1" t="n">
         <v>7</v>
       </c>
-      <c r="BF1" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG1" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH1" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BL1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BM1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BN1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BR1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS1" t="n">
-        <v>9</v>
-      </c>
-      <c r="BT1" t="n">
-        <v>9</v>
-      </c>
       <c r="BU1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BV1" t="n">
         <v>9</v>
@@ -754,55 +754,55 @@
         <v>9</v>
       </c>
       <c r="BY1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CA1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CB1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CC1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CD1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CE1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CF1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CG1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CH1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CI1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CJ1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CK1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CL1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CM1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CN1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CO1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -818,274 +818,274 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2" t="n">
+        <v>90</v>
+      </c>
+      <c r="K2" t="n">
+        <v>90</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90</v>
+      </c>
+      <c r="M2" t="n">
+        <v>90</v>
+      </c>
+      <c r="N2" t="n">
+        <v>90</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>87</v>
+      </c>
+      <c r="R2" t="n">
         <v>83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83</v>
-      </c>
-      <c r="G2" t="n">
-        <v>84</v>
-      </c>
-      <c r="H2" t="n">
-        <v>84</v>
-      </c>
-      <c r="I2" t="n">
-        <v>85</v>
-      </c>
-      <c r="J2" t="n">
-        <v>85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>84</v>
-      </c>
-      <c r="M2" t="n">
-        <v>84</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>82</v>
-      </c>
-      <c r="R2" t="n">
-        <v>81</v>
       </c>
       <c r="S2" t="n">
         <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U2" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V2" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="X2" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AA2" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AD2" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="n">
         <v>73</v>
       </c>
       <c r="AJ2" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AP2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AQ2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>82</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>78</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>73</v>
+      </c>
+      <c r="BE2" t="n">
         <v>69</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BF2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>61</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>53</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>52</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>57</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>61</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BS2" t="n">
         <v>69</v>
       </c>
-      <c r="AU2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AY2" t="n">
+      <c r="BT2" t="n">
         <v>73</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>74</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>76</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>76</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>77</v>
-      </c>
-      <c r="BE2" t="n">
+      <c r="BU2" t="n">
         <v>78</v>
       </c>
-      <c r="BF2" t="n">
-        <v>79</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>80</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BI2" t="n">
+      <c r="BV2" t="n">
         <v>82</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>83</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>84</v>
-      </c>
-      <c r="BL2" t="n">
+      <c r="BW2" t="n">
         <v>86</v>
       </c>
-      <c r="BM2" t="n">
-        <v>87</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>88</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>89</v>
-      </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
         <v>90</v>
       </c>
-      <c r="BQ2" t="n">
-        <v>91</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>92</v>
-      </c>
-      <c r="BS2" t="n">
+      <c r="BY2" t="n">
         <v>90</v>
       </c>
-      <c r="BT2" t="n">
-        <v>88</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>87</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>85</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>83</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>82</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>80</v>
-      </c>
       <c r="BZ2" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="CA2" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="CB2" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="CC2" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="CD2" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="CE2" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="CF2" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="CG2" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="CH2" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="CI2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="CJ2" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="CK2" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="CL2" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="CM2" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="CN2" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="CO2" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>62.22222222222222</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
@@ -1175,74 +1175,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
@@ -1250,34 +1250,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AH3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1295,59 +1295,59 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
@@ -1390,129 +1390,129 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BJ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>62.22222222222222</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -1653,19 +1653,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="V4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1688,109 +1688,109 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AX4" s="1" t="inlineStr">
@@ -1823,74 +1823,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BR4" s="1" t="inlineStr">
@@ -1968,14 +1968,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
@@ -2021,44 +2021,44 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>68.88888888888889</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2141,9 +2141,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -2181,24 +2181,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AM5" s="1" t="inlineStr">
@@ -2241,54 +2241,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
@@ -2306,24 +2306,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BH5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BL5" s="1" t="inlineStr">
@@ -2366,49 +2366,49 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BT5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CC5" s="1" t="inlineStr">
@@ -2441,39 +2441,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2484,44 +2484,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>61.11111111111111</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>68.88888888888889</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2529,34 +2529,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -2604,19 +2604,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -2639,24 +2639,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AH6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AL6" s="1" t="inlineStr">
@@ -2719,44 +2719,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BF6" s="1" t="inlineStr">
@@ -2774,64 +2774,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BI6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BU6" s="1" t="inlineStr">
@@ -2874,69 +2874,69 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>62.22222222222222</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -3067,19 +3067,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AD7" s="1" t="inlineStr">
@@ -3132,64 +3132,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
@@ -3222,19 +3222,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BF7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BI7" s="1" t="inlineStr">
@@ -3317,19 +3317,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BY7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
@@ -3352,19 +3352,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CF7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CI7" s="1" t="inlineStr">
@@ -3410,44 +3410,44 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>61.11111111111111</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>68.88888888888889</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -3485,39 +3485,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -3530,34 +3530,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -3580,19 +3580,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AN8" s="1" t="inlineStr">
@@ -3670,19 +3670,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -3720,9 +3720,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BM8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BN8" s="1" t="inlineStr">
@@ -3760,29 +3760,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
@@ -3795,29 +3795,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="CB8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CG8" s="1" t="inlineStr">
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>62.22222222222222</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
@@ -3918,24 +3918,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3988,9 +3988,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AA9" s="1" t="inlineStr">
@@ -4068,39 +4068,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AW9" s="1" t="inlineStr">
@@ -4108,39 +4108,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AX9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BE9" s="1" t="inlineStr">
@@ -4183,14 +4183,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BM9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
@@ -4218,14 +4218,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BV9" s="1" t="inlineStr">
@@ -4278,54 +4278,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CF9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CI9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4336,49 +4336,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>61.11111111111111</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>68.88888888888889</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -4421,39 +4421,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AA10" s="1" t="inlineStr">
@@ -4531,19 +4531,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AP10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AQ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AS10" s="1" t="inlineStr">
@@ -4591,39 +4591,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BI10" s="1" t="inlineStr">
@@ -4641,54 +4641,54 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BV10" s="1" t="inlineStr">
@@ -4731,64 +4731,64 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>61.11111111111111</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -4884,29 +4884,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -4919,29 +4919,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AF11" s="1" t="inlineStr">
@@ -4999,14 +4999,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -5034,14 +5034,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AX11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ11" s="1" t="inlineStr">
@@ -5079,34 +5079,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BG11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
@@ -5144,9 +5144,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BT11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BU11" s="1" t="inlineStr">
@@ -5184,74 +5184,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CI11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22222222222222</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -5307,44 +5307,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="T12" s="1" t="inlineStr">
@@ -5377,44 +5377,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Z12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AH12" s="1" t="inlineStr">
@@ -5442,49 +5442,49 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AM12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AV12" s="1" t="inlineStr">
@@ -5522,69 +5522,69 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BC12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BP12" s="1" t="inlineStr">
@@ -5597,124 +5597,124 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BR12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CB12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>61.11111111111111</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -5765,39 +5765,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -5825,24 +5825,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="W13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5880,34 +5880,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AH13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AN13" s="1" t="inlineStr">
@@ -5950,44 +5950,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AV13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BD13" s="1" t="inlineStr">
@@ -5995,34 +5995,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BE13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BI13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -6035,29 +6035,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BM13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BR13" s="1" t="inlineStr">
@@ -6075,39 +6075,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB13" s="1" t="inlineStr">
@@ -6165,482 +6165,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CM13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>worker11:</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.583333333333333</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61.11111111111111</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CI14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO14" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CM13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7757,7 +7294,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('T:', 75)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -7767,32 +7304,31 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>('T:', 35)</t>
+          <t>('T:', 40)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>('D:', 70)</t>
+          <t>('D:', 45)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>('T:', 95)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>('T:', 100)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>('D:', 65)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr"/>
       <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7802,38 +7338,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('T:', 105)</t>
+          <t>('T:', 90)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('D:', 90)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>('T:', 65)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>('T:', 110)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('T:', 85)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7843,42 +7386,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('T:', 85)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>('T:', 115)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>('D:', 60)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>('T:', 40)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>('D:', 65)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>('T:', 65)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7888,46 +7430,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('T:', 35)</t>
+          <t>('D:', 40)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('T:', 90)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 40)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('T:', 115)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>('T:', 80)</t>
+          <t>('D:', 60)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>('T:', 115)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>('D:', 65)</t>
-        </is>
-      </c>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7942,19 +7475,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>('D:', 45)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>('T:', 65)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>('T:', 95)</t>
@@ -7967,12 +7500,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>('T:', 50)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7982,54 +7514,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>('D:', 50)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>('D:', 55)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>('T:', 40)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>('T:', 90)</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>('T:', 65)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8039,17 +7558,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('T:', 40)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('D:', 50)</t>
+          <t>('D:', 75)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>('T:', 80)</t>
+          <t>('T:', 115)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8059,7 +7578,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>('T:', 90)</t>
+          <t>('T:', 40)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -8069,16 +7588,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>('T:', 50)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>('D:', 50)</t>
-        </is>
-      </c>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8088,42 +7602,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('D:', 40)</t>
+          <t>('T:', 80)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>('D:', 40)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 55)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('T:', 95)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>('T:', 105)</t>
+          <t>('D:', 50)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>('D:', 60)</t>
+          <t>('T:', 100)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8133,7 +7646,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('T:', 80)</t>
+          <t>('T:', 105)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8143,7 +7656,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>('T:', 80)</t>
+          <t>('T:', 65)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8153,26 +7666,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('D:', 70)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>('T:', 40)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>('D:', 70)</t>
-        </is>
-      </c>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8182,7 +7690,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('T:', 40)</t>
+          <t>('T:', 110)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8192,22 +7700,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>('T:', 95)</t>
+          <t>('T:', 105)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('D:', 65)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('T:', 60)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>('D:', 50)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -8215,13 +7723,8 @@
           <t>('T:', 35)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8231,91 +7734,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('T:', 95)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('D:', 85)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>('T:', 45)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>('T:', 40)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>('D:', 15)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>worker11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>('D:', 60)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>('T:', 115)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>('T:', 65)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>('T:', 95)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -1170,9 +1170,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1210,29 +1210,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -1250,49 +1250,49 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
@@ -1345,44 +1345,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BG3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
@@ -1390,59 +1390,59 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BU3" t="inlineStr">
@@ -1450,34 +1450,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BV3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB3" s="1" t="inlineStr">
@@ -1563,39 +1563,39 @@
       <c r="C4" t="n">
         <v>68.88888888888889</v>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1653,39 +1653,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AC4" s="1" t="inlineStr">
@@ -1698,39 +1698,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AE4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AL4" s="1" t="inlineStr">
@@ -1758,39 +1758,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AX4" s="1" t="inlineStr">
@@ -1848,14 +1848,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BI4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1883,14 +1883,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BR4" s="1" t="inlineStr">
@@ -1943,74 +1943,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2256,74 +2256,74 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AX5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BA5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BB5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BC5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BL5" s="1" t="inlineStr">
@@ -2371,39 +2371,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BV5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BW5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BX5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BY5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BZ5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CB5" s="1" t="inlineStr">
@@ -2441,39 +2441,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CM5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2489,44 +2489,44 @@
       <c r="C6" t="n">
         <v>68.88888888888889</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -2569,39 +2569,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AA6" s="1" t="inlineStr">
@@ -2619,44 +2619,44 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AL6" s="1" t="inlineStr">
@@ -2684,39 +2684,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AQ6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AS6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AT6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AX6" s="1" t="inlineStr">
@@ -2764,14 +2764,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BG6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BH6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
@@ -2799,39 +2799,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BN6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BU6" s="1" t="inlineStr">
@@ -2869,39 +2869,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CC6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CE6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CF6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CG6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CH6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="CI6" s="1" t="inlineStr">
@@ -3022,39 +3022,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -3082,39 +3082,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AD7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AH7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AK7" s="1" t="inlineStr">
@@ -3192,29 +3192,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
@@ -3237,64 +3237,64 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BI7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BJ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BM7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BN7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BU7" s="1" t="inlineStr">
@@ -3332,39 +3332,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI7" s="1" t="inlineStr">
@@ -3575,9 +3575,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AK8" s="1" t="inlineStr">
@@ -3725,39 +3725,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BN8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BO8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BP8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BT8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BU8" t="inlineStr">
@@ -3765,34 +3765,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BV8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CB8" s="1" t="inlineStr">
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.083333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>67.77777777777779</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
@@ -3918,39 +3918,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -3993,14 +3993,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AC9" s="1" t="inlineStr">
@@ -4038,39 +4038,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AJ9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AM9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ9" s="1" t="inlineStr">
@@ -4108,39 +4108,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BE9" s="1" t="inlineStr">
@@ -4173,14 +4173,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BK9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BL9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
@@ -4218,14 +4218,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BT9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BU9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BV9" s="1" t="inlineStr">
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.166666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>68.88888888888889</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
@@ -4411,14 +4411,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="R10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -4446,14 +4446,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="Y10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AA10" s="1" t="inlineStr">
@@ -4491,29 +4491,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -4546,9 +4546,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AS10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AT10" s="1" t="inlineStr">
@@ -4631,14 +4631,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
@@ -4671,24 +4671,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BR10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BV10" s="1" t="inlineStr">
@@ -4756,39 +4756,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4894,19 +4894,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="V11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -5009,39 +5009,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AZ11" s="1" t="inlineStr">
@@ -5059,24 +5059,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BC11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BD11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.166666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>68.88888888888889</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -5302,39 +5302,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -5372,9 +5372,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Y12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -5407,14 +5407,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AH12" s="1" t="inlineStr">
@@ -5477,39 +5477,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AT12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AU12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AX12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AY12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AZ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BA12" s="1" t="inlineStr">
@@ -5522,49 +5522,49 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BK12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
@@ -5587,24 +5587,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BP12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BQ12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BR12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="BS12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="BT12" s="1" t="inlineStr">
@@ -5647,39 +5647,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CB12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CC12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CD12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CE12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CF12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CG12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CH12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="CB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CI12" s="1" t="inlineStr">
@@ -5725,10 +5725,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.083333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>67.77777777777779</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -5845,29 +5845,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AA13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -5880,29 +5880,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AH13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AI13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AJ13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AK13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AL13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AM13" s="1" t="inlineStr">
@@ -6030,9 +6030,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BL13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="BM13" s="1" t="inlineStr">
@@ -6075,39 +6075,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BW13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BX13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BY13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BZ13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CA13" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="BU13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA13" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="CB13" s="1" t="inlineStr">
@@ -6145,39 +6145,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CI13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CJ13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CL13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CN13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CO13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7294,37 +7294,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('T:', 70)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>('D:', 65)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>('T:', 60)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>('T:', 40)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>('T:', 95)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>('D:', 60)</t>
-        </is>
-      </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>('T:', 100)</t>
+          <t>('T:', 70)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr"/>
@@ -7338,42 +7338,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('T:', 90)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>('T:', 100)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>('T:', 70)</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>('T:', 65)</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>('T:', 60)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>('T:', 85)</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('T:', 75)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>('T:', 115)</t>
+          <t>('T:', 80)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7419,7 +7419,11 @@
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -7430,37 +7434,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('D:', 40)</t>
+          <t>('T:', 80)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('T:', 90)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>('D:', 40)</t>
+          <t>('T:', 80)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>('T:', 115)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>('D:', 60)</t>
+          <t>('T:', 45)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7470,7 +7486,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('T:', 70)</t>
+          <t>('T:', 105)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7480,29 +7496,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('T:', 100)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('D:', 80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>('T:', 95)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -7519,34 +7527,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('D:', 50)</t>
+          <t>('D:', 45)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>('T:', 90)</t>
+          <t>('T:', 95)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>('D:', 55)</t>
+          <t>('D:', 95)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>('T:', 70)</t>
-        </is>
-      </c>
+          <t>('T:', 100)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -7558,17 +7558,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('T:', 40)</t>
+          <t>('T:', 75)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('D:', 75)</t>
+          <t>('D:', 50)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>('T:', 115)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7578,17 +7578,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>('T:', 40)</t>
+          <t>('T:', 100)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>('D:', 35)</t>
+          <t>('D:', 55)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>('T:', 110)</t>
+          <t>('T:', 100)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -7602,40 +7602,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>('T:', 80)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>('T:', 85)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>('D:', 55)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>('T:', 95)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>('D:', 50)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>('T:', 100)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -7646,39 +7650,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>('D:', 50)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>('D:', 90)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>('T:', 105)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>('T:', 65)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>('D:', 70)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -7690,41 +7686,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('T:', 70)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>('T:', 55)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>('T:', 110)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>('D:', 65)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>('D:', 35)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>('T:', 35)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7744,7 +7748,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('T:', 70)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7754,29 +7758,25 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>('T:', 115)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>('D:', 40)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>('T:', 40)</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>('D:', 35)</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>('T:', 70)</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LEMD_DCL.xlsx
+++ b/LEMD_DCL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:CO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,25 +537,25 @@
       <c r="D1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" t="n">
+      <c r="P1" t="n">
         <v>5</v>
       </c>
-      <c r="L1" t="n">
+      <c r="AB1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN1" t="n">
         <v>8</v>
       </c>
-      <c r="P1" t="n">
+      <c r="AZ1" t="n">
         <v>8</v>
       </c>
-      <c r="T1" t="n">
+      <c r="BL1" t="n">
         <v>5</v>
       </c>
-      <c r="X1" t="n">
+      <c r="BX1" t="n">
         <v>6</v>
       </c>
-      <c r="AB1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF1" t="n">
+      <c r="CJ1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -572,27 +572,27 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="P2" t="n">
         <v>55</v>
       </c>
-      <c r="H2" t="n">
+      <c r="AB2" t="n">
         <v>55</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AN2" t="n">
         <v>81</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AZ2" t="n">
         <v>81</v>
       </c>
-      <c r="T2" t="n">
+      <c r="BL2" t="n">
         <v>60</v>
       </c>
-      <c r="X2" t="n">
+      <c r="BX2" t="n">
         <v>65</v>
       </c>
-      <c r="AB2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="CJ2" t="n">
         <v>73</v>
       </c>
     </row>
@@ -603,24 +603,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.25</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>68.88888888888889</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -643,24 +643,24 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
@@ -688,29 +688,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -728,32 +728,332 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -766,34 +1066,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.25</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>67.77777777777779</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -806,9 +1106,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -836,39 +1136,39 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
@@ -881,9 +1181,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Z4" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -916,9 +1216,309 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO4" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -929,34 +1529,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.25</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
@@ -969,14 +1569,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -994,14 +1594,14 @@
           <t>D</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1009,19 +1609,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -1039,19 +1639,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Y5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA5" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1074,12 +1674,312 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY5" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1092,44 +1992,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="C6" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>56.66666666666666</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1157,14 +2057,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1172,34 +2072,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="S6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X6" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -1212,29 +2112,29 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1243,6 +2143,306 @@
         </is>
       </c>
       <c r="AG6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX6" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1255,39 +2455,39 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1300,9 +2500,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1320,29 +2520,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1360,29 +2560,29 @@
           <t>D</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AC7" s="1" t="inlineStr">
@@ -1406,6 +2606,306 @@
         </is>
       </c>
       <c r="AG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN7" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO7" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -1418,10 +2918,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>43.33333333333334</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1463,9 +2963,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
@@ -1538,24 +3038,24 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AA8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD8" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr">
@@ -1563,14 +3063,314 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO8" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1581,24 +3381,24 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>57.77777777777777</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1646,19 +3446,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1676,14 +3476,14 @@
           <t>T</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1696,19 +3496,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Z9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1732,6 +3532,306 @@
         </is>
       </c>
       <c r="AG9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH9" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1744,24 +3844,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>D</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1779,19 +3879,19 @@
           <t>T</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1814,39 +3914,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1854,34 +3954,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="Y10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr">
@@ -1889,12 +3989,312 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AF10" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG10" s="1" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AP10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BY10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN10" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO10" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -1907,24 +4307,24 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="C11" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+        <v>56.66666666666666</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1957,19 +4357,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1992,9 +4392,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
@@ -2017,47 +4417,347 @@
           <t>T</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF11" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AG11" s="1" t="inlineStr">
+      <c r="Y11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BO11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BP11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BQ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BR11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BS11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BT11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BU11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CI11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN11" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO11" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -2070,10 +4770,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="C12" t="n">
-        <v>43.33333333333334</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2090,19 +4790,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2120,34 +4820,34 @@
           <t>D</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2165,59 +4865,59 @@
           <t>D</t>
         </is>
       </c>
-      <c r="V12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y12" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Z12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2225,677 +4925,325 @@
           <t>D</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>worker10:</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE13" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>worker11:</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="M14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AB14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD14" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>worker12:</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="S15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AA15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE15" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>worker13:</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Z16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD16" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AQ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AS12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BU12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BV12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BW12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BX12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BY12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BZ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CB12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CC12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CE12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CF12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CG12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CH12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CI12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CJ12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CL12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CN12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CO12" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="AB1:AM1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="AZ2:BK2"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AY2"/>
+    <mergeCell ref="AZ1:BK1"/>
+    <mergeCell ref="AN1:AY1"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="BL2:BW2"/>
+    <mergeCell ref="BX1:CI1"/>
+    <mergeCell ref="BX2:CI2"/>
+    <mergeCell ref="CJ1:CO1"/>
+    <mergeCell ref="CJ2:CO2"/>
+    <mergeCell ref="BL1:BW1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:CO2">
     <cfRule type="colorScale" priority="1">
@@ -3189,6 +5537,606 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="70"/>
+        <cfvo type="max"/>
+        <color rgb="0025D82B"/>
+        <color rgb="00F0A22A"/>
+        <color rgb="00E03C18"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="70"/>
@@ -3209,7 +6157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3225,40 +6173,44 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 105)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>('D:', 60)</t>
+          <t>('T:', 85)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>('D:', 120)</t>
+          <t>('T:', 85)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>('D:', 30)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr"/>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3268,36 +6220,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>('T:', 75)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
+          <t>('T:', 115)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>('T:', 80)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3307,40 +6267,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('D:', 75)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 85)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>('T:', 90)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>('T:', 110)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>('D:', 80)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3350,32 +6314,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
+          <t>('T:', 70)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>('T:', 120)</t>
+          <t>('D:', 40)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>('D:', 85)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3385,35 +6361,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('D:', 90)</t>
+          <t>('T:', 40)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 60)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 90)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>('D:', 120)</t>
+          <t>('T:', 105)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>('T:', 75)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>('D:', 85)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -3424,32 +6404,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('D:', 120)</t>
+          <t>('D:', 45)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('T:', 120)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
+          <t>('D:', 55)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>('T:', 50)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>('T:', 75)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>('D:', 30)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>('D:', 60)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>('T:', 90)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3459,44 +6451,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 40)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('D:', 75)</t>
+          <t>('T:', 60)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 80)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 115)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>('D:', 60)</t>
+          <t>('T:', 85)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>('D:', 75)</t>
-        </is>
-      </c>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3506,35 +6494,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('D:', 45)</t>
+          <t>('T:', 45)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 60)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
+          <t>('T:', 35)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>('T:', 105)</t>
+          <t>('D:', 50)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>('D:', 105)</t>
+          <t>('T:', 110)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>('D:', 65)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>('T:', 85)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3545,40 +6537,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 80)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('D:', 90)</t>
+          <t>('T:', 55)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
+          <t>('D:', 45)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>('D:', 75)</t>
+          <t>('T:', 80)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
+          <t>('D:', 35)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>('D:', 90)</t>
+          <t>('T:', 85)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>('D:', 35)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3588,212 +6584,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>('D:', 110)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>('T:', 35)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('D:', 40)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>('T:', 115)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>('D:', 45)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>('T:', 90)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>('D:', 120)</t>
-        </is>
-      </c>
+          <t>('T:', 105)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>worker10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>('D:', 30)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>worker11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>('D:', 60)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>('D:', 60)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>worker12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>('D:', 75)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>('T:', 60)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>('D:', 105)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>('T:', 75)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>('D:', 30)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>worker13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>('D:', 90)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>('T:', 45)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>('D:', 120)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>('T:', 105)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>('D:', 45)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
